--- a/training/landmark_extraction_timesheet.xlsx
+++ b/training/landmark_extraction_timesheet.xlsx
@@ -2,14 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11GB" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1GB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2GB" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Progress" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="chunk_25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="22GB" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,13 +18,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +56,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,16 +109,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -143,10 +230,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -184,69 +271,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,54 +359,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -327,7 +415,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -336,7 +424,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,7 +433,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,10 +441,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -385,7 +473,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -398,13 +486,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,128 +511,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Processed Images</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Elapsed Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Time Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.88320899009705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="n">
-        <v>53.20105648040771</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25.31784749031067</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="B4" t="n">
-        <v>85.10815024375916</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31.90709376335145</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B5" t="n">
-        <v>114.9182364940643</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29.81008625030518</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B6" t="n">
-        <v>147.961790561676</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33.04355406761172</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B7" t="n">
-        <v>172.286073923111</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24.32428336143496</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7000</v>
-      </c>
-      <c r="B8" t="n">
-        <v>200.6562967300415</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28.37022280693051</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="B9" t="n">
-        <v>227.9635779857635</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.30728125572205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C4"/>
@@ -555,56 +521,137 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Processed Images</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
-          <t>Elapsed Time</t>
+          <t>Elapsed Time (s)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
-          <t>Time Difference</t>
+          <t>Time Difference (s)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" t="n">
-        <v>24.50734996795654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" s="11" t="n">
+        <v>31.57283067703247</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>31.57283067703247</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="B3" t="n">
-        <v>50.85989046096802</v>
-      </c>
-      <c r="C3" t="n">
-        <v>26.35254049301148</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" s="11" t="n">
+        <v>68.18643999099731</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>36.61360931396484</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="10" t="n">
         <v>3000</v>
       </c>
-      <c r="B4" t="n">
-        <v>80.51136136054993</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29.65147089958191</v>
+      <c r="B4" s="11" t="n">
+        <v>102.562153339386</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>34.37571334838867</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Processed Images</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Elapsed Time (s)</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Time Difference (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>30.8889012336731</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>30.8889012336731</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="10" t="n"/>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="10" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="10" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>1796.899205446243</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>31.01467895507812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -614,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,17 +670,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Processed Images</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Elapsed Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Time Difference</t>
         </is>
@@ -644,7 +691,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="n">
-        <v>25.17379283905029</v>
+        <v>35.54618072509766</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -653,10 +700,10 @@
         <v>2000</v>
       </c>
       <c r="B3" t="n">
-        <v>55.76659107208252</v>
+        <v>70.12823820114136</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59279823303223</v>
+        <v>34.58205747604369</v>
       </c>
     </row>
     <row r="4">
@@ -664,10 +711,10 @@
         <v>3000</v>
       </c>
       <c r="B4" t="n">
-        <v>86.5340633392334</v>
+        <v>103.7432985305786</v>
       </c>
       <c r="C4" t="n">
-        <v>30.76747226715088</v>
+        <v>33.61506032943726</v>
       </c>
     </row>
     <row r="5">
@@ -675,10 +722,10 @@
         <v>4000</v>
       </c>
       <c r="B5" t="n">
-        <v>114.4814751148224</v>
+        <v>138.167001247406</v>
       </c>
       <c r="C5" t="n">
-        <v>27.94741177558899</v>
+        <v>34.42370271682741</v>
       </c>
     </row>
     <row r="6">
@@ -686,10 +733,10 @@
         <v>5000</v>
       </c>
       <c r="B6" t="n">
-        <v>137.0334179401398</v>
+        <v>172.1033964157104</v>
       </c>
       <c r="C6" t="n">
-        <v>22.55194282531737</v>
+        <v>33.93639516830444</v>
       </c>
     </row>
     <row r="7">
@@ -697,32 +744,257 @@
         <v>6000</v>
       </c>
       <c r="B7" t="n">
-        <v>159.7322225570679</v>
+        <v>206.123327255249</v>
       </c>
       <c r="C7" t="n">
-        <v>22.69880461692807</v>
+        <v>34.01993083953863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="B8" t="n">
-        <v>184.4832332134247</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24.75101065635678</v>
-      </c>
+        <v>34.2372407913208</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67.3893735408783</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.1521327495575</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100.2110152244568</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.82164168357849</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>133.3382368087769</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.12722158432005</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>166.7040541172028</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.36581730842585</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>199.9105064868927</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.20645236968991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32.89439249038696</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.30585956573486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32.4114670753479</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>97.95417404174805</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32.64831447601318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34.43241548538208</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>66.97635722160339</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32.54394173622131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>99.61756134033203</v>
+      </c>
+      <c r="C19" t="n">
+        <v>32.64120411872864</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>132.4242432117462</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32.80668187141418</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>165.4198794364929</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.99563622474673</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>199.5180561542511</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.09817671775821</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>232.4544415473938</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.9363853931427</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>8000</v>
       </c>
-      <c r="B9" t="n">
-        <v>213.9815721511841</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29.49833893775937</v>
+      <c r="B24" t="n">
+        <v>266.2964239120483</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33.84198236465454</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>300.3719482421875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.07552433013922</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>334.4070756435394</v>
+      </c>
+      <c r="C26" t="n">
+        <v>34.03512740135193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>368.3903863430023</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.98331069946295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>402.5065376758575</v>
+      </c>
+      <c r="C28" t="n">
+        <v>34.11615133285522</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>437.8696739673615</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35.36313629150396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>471.6247041225433</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.75503015518183</v>
       </c>
     </row>
   </sheetData>
